--- a/tests/data/compare_new2.xlsx
+++ b/tests/data/compare_new2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="2140" windowWidth="24640" windowHeight="14560" tabRatio="500"/>
+    <workbookView xWindow="11620" yWindow="0" windowWidth="25600" windowHeight="15520" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t>key</t>
   </si>
@@ -75,17 +75,20 @@
     <t>∂</t>
   </si>
   <si>
-    <t>me</t>
-  </si>
-  <si>
-    <t>mememe</t>
+    <t>VQSR</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -99,6 +102,13 @@
       <name val="宋体"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,10 +131,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,7 +470,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -497,8 +508,11 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>6</v>
+      <c r="E2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0.2</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -514,8 +528,11 @@
       <c r="D3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
-        <v>18</v>
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="16">
@@ -529,9 +546,10 @@
         <v>10</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="F4" t="s">
-        <v>19</v>
-      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
@@ -546,8 +564,11 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>7</v>
+      <c r="E5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.04</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -562,6 +583,12 @@
       </c>
       <c r="D6" t="s">
         <v>14</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" s="3">
+        <v>4.0000000000000002E-4</v>
       </c>
     </row>
   </sheetData>
